--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51830.92866230669</v>
+        <v>-50342.17947536736</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108955</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429402</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4350504.213533137</v>
+        <v>4240649.981817733</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>115.1000449748476</v>
+      </c>
+      <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>41.64101519533161</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,7 +746,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>93.17921052631583</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>255.8961138813511</v>
       </c>
       <c r="V4" t="n">
-        <v>48.96428180494321</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>47.15016546971388</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>74.47479140598074</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -990,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>113.5228254192845</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.2706020271287</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>215.2285648127963</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>185.6197914577338</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>82.63010370869334</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.2681271316377</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5319979429864543</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>215.2285648127963</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1464,7 +1466,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,13 +1587,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>211.295991602075</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>174.0604902725265</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>74.47479140598085</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>67.65538200560648</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T15" t="n">
         <v>128.8768572327044</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>106.062636650466</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>67.14725379420837</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>140.4073095599024</v>
       </c>
       <c r="W17" t="n">
-        <v>8.032634771167993</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1938,7 +1940,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.30944613818192</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>41.26176538196641</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>375.9790740437533</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>52.73509820686085</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2245,7 +2247,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>109.3916857660879</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>135.3575543048045</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2318,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>253.8159699232728</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>156.5603386732361</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D26" t="n">
         <v>424.2958575201043</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>119.7244727694559</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,10 +2775,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2792,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>97.53285925133385</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2953,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>67.21017831535856</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>84.85899356878417</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>155.8532364480161</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>115.4012337133193</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>64.91732246292912</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,19 +3271,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>378.7606637428541</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.943826250237751</v>
+        <v>106.3785108036302</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>2.350305051013961</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>350.4310187691027</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>117.4295244296894</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>388.8240912665597</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>10.60794288550365</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>5.64492333244486</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>37.28016130075125</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0765084323517</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>159.4921886272153</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
         <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>181.0765084323517</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>181.0765084323517</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>12.67675412602683</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>159.4921886272153</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>181.0765084323517</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>181.0765084323517</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>181.0765084323517</v>
+        <v>29.41206276533558</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C2" t="n">
-        <v>905.9848057515121</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="D2" t="n">
-        <v>477.4031314887804</v>
+        <v>1580.920758388652</v>
       </c>
       <c r="E2" t="n">
-        <v>477.4031314887804</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4364,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>465.1886646636541</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>465.1886646636541</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>299.3106718651768</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1012.163870549765</v>
       </c>
       <c r="V4" t="n">
-        <v>1401.845113148829</v>
+        <v>725.2083624201957</v>
       </c>
       <c r="W4" t="n">
-        <v>1129.81870873512</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="X4" t="n">
-        <v>884.426954068533</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.0072833826412</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="C5" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="D5" t="n">
-        <v>435.3414999783445</v>
+        <v>81.98688774185609</v>
       </c>
       <c r="E5" t="n">
-        <v>435.3414999783445</v>
+        <v>81.98688774185609</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>81.98688774185609</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>81.98688774185609</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4574,13 +4576,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4598,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1621.956368054174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.339417988001</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W5" t="n">
-        <v>854.4839633990338</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X5" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y5" t="n">
-        <v>435.3414999783445</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>540.1154135929013</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4686,10 +4688,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>787.9050938934437</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>661.4193146726644</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>892.3220711155946</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="C7" t="n">
-        <v>719.7603595988195</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="D7" t="n">
-        <v>553.8823668003422</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E7" t="n">
-        <v>553.8823668003422</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F7" t="n">
-        <v>377.1753127620984</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4729,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4756,19 +4758,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X7" t="n">
-        <v>892.3220711155946</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="Y7" t="n">
-        <v>892.3220711155946</v>
+        <v>376.2419976140245</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>251.3462593216046</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C8" t="n">
-        <v>251.3462593216046</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D8" t="n">
-        <v>251.3462593216046</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E8" t="n">
-        <v>251.3462593216046</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F8" t="n">
-        <v>251.3462593216046</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H8" t="n">
         <v>33.94366860160834</v>
@@ -4805,16 +4807,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
         <v>687.9235674375537</v>
@@ -4835,19 +4837,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>1509.688691234222</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>1147.071741168048</v>
       </c>
       <c r="W8" t="n">
-        <v>670.4887227422939</v>
+        <v>742.2162865790814</v>
       </c>
       <c r="X8" t="n">
-        <v>251.3462593216046</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="Y8" t="n">
-        <v>251.3462593216046</v>
+        <v>323.0738231583921</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K9" t="n">
-        <v>778.554892512724</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.6507226398521</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="C10" t="n">
         <v>210.6507226398521</v>
@@ -4999,13 +5001,13 @@
         <v>885.9154747824084</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>802.450723561506</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.6507226398521</v>
+        <v>575.0310528756143</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.3462593216046</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="C11" t="n">
-        <v>251.3462593216046</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="D11" t="n">
-        <v>251.3462593216046</v>
+        <v>863.7463012287189</v>
       </c>
       <c r="E11" t="n">
-        <v>251.3462593216046</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F11" t="n">
-        <v>251.3462593216046</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G11" t="n">
         <v>33.94366860160834</v>
@@ -5042,16 +5044,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5072,19 +5074,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W11" t="n">
-        <v>670.4887227422939</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X11" t="n">
-        <v>251.3462593216046</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.3462593216046</v>
+        <v>1292.327975491451</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5106,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5197,52 +5199,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X13" t="n">
-        <v>438.0703933257439</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y13" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.2824383042412</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C14" t="n">
-        <v>102.2824383042412</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D14" t="n">
-        <v>102.2824383042412</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E14" t="n">
-        <v>102.2824383042412</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F14" t="n">
-        <v>102.2824383042412</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G14" t="n">
         <v>33.94366860160834</v>
@@ -5321,7 +5323,7 @@
         <v>510.5685620045878</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.2824383042412</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5363,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O15" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P15" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5434,25 +5436,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K16" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>761.43086230084</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M16" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5461,25 +5463,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1590.049453665805</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1344.17000724426</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1065.737006497366</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V16" t="n">
-        <v>778.7814983677961</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W16" t="n">
-        <v>506.7550939540876</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X16" t="n">
-        <v>261.3633392875001</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y16" t="n">
-        <v>33.94366860160834</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C17" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D17" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E17" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F17" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G17" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5519,16 +5521,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N17" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
         <v>1107.976466382457</v>
@@ -5549,16 +5551,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1555.357864868395</v>
       </c>
       <c r="W17" t="n">
-        <v>1689.069657584288</v>
+        <v>1150.502410279428</v>
       </c>
       <c r="X17" t="n">
-        <v>1269.927194163599</v>
+        <v>731.3599468587387</v>
       </c>
       <c r="Y17" t="n">
-        <v>861.6410704632523</v>
+        <v>323.0738231583921</v>
       </c>
     </row>
     <row r="18">
@@ -5571,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5580,10 +5582,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5595,19 +5597,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M18" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N18" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O18" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.97043790589</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C19" t="n">
-        <v>380.4087263891149</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D19" t="n">
         <v>380.4087263891149</v>
@@ -5671,25 +5673,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L19" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M19" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5701,22 +5703,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X19" t="n">
-        <v>613.8890703687</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.8890703687</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2243.76125594652</v>
+        <v>1270.883859595509</v>
       </c>
       <c r="C20" t="n">
-        <v>1805.618783129943</v>
+        <v>842.3021853327778</v>
       </c>
       <c r="D20" t="n">
-        <v>1369.708998304388</v>
+        <v>413.7205110700461</v>
       </c>
       <c r="E20" t="n">
-        <v>935.934253462683</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F20" t="n">
-        <v>508.0668238718908</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>106.6689924951547</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K20" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L20" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M20" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N20" t="n">
-        <v>632.7278666362198</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K21" t="n">
-        <v>1058.729261281022</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.729261281022</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M21" t="n">
-        <v>1058.729261281022</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N21" t="n">
-        <v>1058.729261281022</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O21" t="n">
-        <v>1058.729261281022</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>933.2958513705994</v>
+        <v>714.6817019292769</v>
       </c>
       <c r="C22" t="n">
-        <v>760.7341398538243</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D22" t="n">
-        <v>594.856147055347</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E22" t="n">
-        <v>484.3594947663694</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F22" t="n">
-        <v>307.6524407281256</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G22" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933183</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.7393562644539</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.949238032415</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370972</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>2243.522190013251</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U22" t="n">
-        <v>1965.089189266357</v>
+        <v>1133.919991334156</v>
       </c>
       <c r="V22" t="n">
-        <v>1678.133681136787</v>
+        <v>1133.919991334156</v>
       </c>
       <c r="W22" t="n">
-        <v>1406.107276723079</v>
+        <v>1133.919991334156</v>
       </c>
       <c r="X22" t="n">
-        <v>1160.715522056491</v>
+        <v>1133.919991334156</v>
       </c>
       <c r="Y22" t="n">
-        <v>933.2958513705994</v>
+        <v>906.5003206482641</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>744.3459918350084</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C23" t="n">
-        <v>744.3459918350084</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D23" t="n">
-        <v>744.3459918350084</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E23" t="n">
-        <v>744.3459918350084</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F23" t="n">
-        <v>744.3459918350084</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L23" t="n">
-        <v>1293.567921177998</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M23" t="n">
-        <v>1293.567921177998</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N23" t="n">
-        <v>1293.567921177998</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O23" t="n">
-        <v>1293.567921177998</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2190.771296621483</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>1828.15434655531</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>1571.774578956044</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>1152.632115535355</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y23" t="n">
-        <v>744.3459918350084</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>73.33088177303154</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J24" t="n">
-        <v>397.8892067392439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.729261281022</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.729261281022</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.729261281022</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N24" t="n">
-        <v>1058.729261281022</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O24" t="n">
-        <v>1058.729261281022</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1132.45937714051</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>959.897665623735</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>794.0196728252577</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>624.2616690759949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>447.554615037751</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>281.9633400635787</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>2634.504334502149</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U25" t="n">
-        <v>2356.071333755254</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V25" t="n">
-        <v>2069.115825625685</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W25" t="n">
-        <v>1797.089421211977</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X25" t="n">
-        <v>1551.697666545389</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y25" t="n">
-        <v>1324.277995859497</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C26" t="n">
         <v>1318.974446717864</v>
@@ -6224,22 +6226,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L26" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M26" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N26" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O26" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6254,22 +6256,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y26" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="27">
@@ -6282,43 +6284,43 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
-        <v>338.5686635760967</v>
+        <v>338.5686635760968</v>
       </c>
       <c r="E27" t="n">
-        <v>244.4482489030504</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M27" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N27" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O27" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C28" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D28" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E28" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F28" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6382,25 +6384,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L28" t="n">
-        <v>689.2685070454004</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M28" t="n">
-        <v>689.2685070454004</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N28" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O28" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P28" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
@@ -6409,25 +6411,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1554.831797907551</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T28" t="n">
-        <v>1308.952351486006</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U28" t="n">
-        <v>1030.519350739111</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V28" t="n">
-        <v>743.5638426095418</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W28" t="n">
-        <v>743.5638426095418</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X28" t="n">
-        <v>743.5638426095418</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.14417192365</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1697.183430080417</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="C29" t="n">
-        <v>1318.974446717864</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="D29" t="n">
-        <v>890.3927724551322</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G29" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6497,16 +6499,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>1598.665390432605</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>1598.665390432605</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.183430080417</v>
+        <v>1179.522927011916</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.183430080417</v>
+        <v>1179.522927011916</v>
       </c>
     </row>
     <row r="30">
@@ -6519,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6528,34 +6530,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J30" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K30" t="n">
-        <v>384.5656667282782</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L30" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M30" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N30" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O30" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.94366860160834</v>
+        <v>613.8890703687</v>
       </c>
       <c r="C31" t="n">
-        <v>33.94366860160834</v>
+        <v>613.8890703687</v>
       </c>
       <c r="D31" t="n">
-        <v>33.94366860160834</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E31" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G31" t="n">
         <v>33.94366860160834</v>
@@ -6619,52 +6621,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N31" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O31" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1590.049453665805</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1344.17000724426</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U31" t="n">
-        <v>1065.737006497366</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V31" t="n">
-        <v>778.7814983677961</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W31" t="n">
-        <v>506.7550939540876</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X31" t="n">
-        <v>261.3633392875001</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y31" t="n">
-        <v>33.94366860160834</v>
+        <v>613.8890703687</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1477.116202953456</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C32" t="n">
-        <v>1048.534528690724</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D32" t="n">
-        <v>619.9528544279926</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E32" t="n">
-        <v>191.371180165261</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6698,25 +6700,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O32" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q32" t="n">
         <v>1528.02936532736</v>
@@ -6725,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1477.116202953456</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>1477.116202953456</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X32" t="n">
-        <v>1477.116202953456</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y32" t="n">
-        <v>1477.116202953456</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="33">
@@ -6756,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6765,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6783,19 +6785,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
         <v>1580.010651986078</v>
@@ -6832,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>614.3767621236573</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C34" t="n">
-        <v>441.8150506068822</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D34" t="n">
-        <v>441.8150506068822</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E34" t="n">
-        <v>376.2419976140245</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F34" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G34" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H34" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>761.43086230084</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M34" t="n">
-        <v>1181.483761245743</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6880,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T34" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U34" t="n">
-        <v>1418.750429333523</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.794921203953</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W34" t="n">
-        <v>859.7685167902448</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X34" t="n">
-        <v>614.3767621236573</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y34" t="n">
-        <v>614.3767621236573</v>
+        <v>1229.568731954216</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1319.688691389803</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C35" t="n">
-        <v>891.1070171270717</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D35" t="n">
-        <v>462.52534286434</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="E35" t="n">
-        <v>33.94366860160834</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="F35" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6935,25 +6937,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q35" t="n">
         <v>1528.02936532736</v>
@@ -6962,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X35" t="n">
-        <v>1319.688691389803</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y35" t="n">
-        <v>1319.688691389803</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>540.1154135929012</v>
+        <v>540.1154135929013</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7002,7 +7004,7 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
         <v>75.67932078539587</v>
@@ -7011,13 +7013,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J36" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
         <v>1159.957753041174</v>
@@ -7056,10 +7058,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X36" t="n">
-        <v>787.9050938934436</v>
+        <v>787.9050938934437</v>
       </c>
       <c r="Y36" t="n">
-        <v>661.4193146726643</v>
+        <v>661.4193146726644</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>884.4397056785397</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C37" t="n">
-        <v>711.8779941617646</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D37" t="n">
-        <v>546.0000013632873</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E37" t="n">
-        <v>376.2419976140245</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F37" t="n">
-        <v>199.5349435757807</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7093,25 +7095,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>91.3608564523079</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>509.5707382202689</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M37" t="n">
-        <v>929.6236371651722</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N37" t="n">
-        <v>1349.676536110076</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O37" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
@@ -7135,10 +7137,10 @@
         <v>1131.794921203953</v>
       </c>
       <c r="X37" t="n">
-        <v>886.4031665373657</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="Y37" t="n">
-        <v>886.4031665373657</v>
+        <v>1131.794921203953</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>462.52534286434</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="C38" t="n">
-        <v>462.52534286434</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D38" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E38" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G38" t="n">
         <v>33.94366860160834</v>
@@ -7172,19 +7174,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7202,22 +7204,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V38" t="n">
-        <v>1694.809384574343</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W38" t="n">
-        <v>1289.953929985376</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="X38" t="n">
-        <v>870.8114665646866</v>
+        <v>863.9231742410761</v>
       </c>
       <c r="Y38" t="n">
-        <v>462.52534286434</v>
+        <v>863.9231742410761</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7250,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I39" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J39" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K39" t="n">
-        <v>739.9048540962709</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L39" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
         <v>1159.957753041174</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.0776450162207</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="C40" t="n">
-        <v>141.0776450162207</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D40" t="n">
-        <v>141.0776450162207</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E40" t="n">
-        <v>141.0776450162207</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F40" t="n">
-        <v>141.0776450162207</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G40" t="n">
         <v>33.94366860160834</v>
@@ -7330,22 +7332,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>33.94366860160834</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>453.9965675465116</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>874.0494664914149</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
         <v>1528.990655216085</v>
@@ -7363,19 +7365,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U40" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V40" t="n">
-        <v>885.9154747824084</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W40" t="n">
-        <v>613.8890703687</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X40" t="n">
-        <v>368.4973157021125</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.0776450162207</v>
+        <v>664.9024004297028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>462.52534286434</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C41" t="n">
-        <v>33.94366860160834</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D41" t="n">
-        <v>33.94366860160834</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E41" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F41" t="n">
         <v>33.94366860160834</v>
@@ -7409,19 +7411,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N41" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
         <v>687.9235674375537</v>
@@ -7439,22 +7441,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V41" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W41" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X41" t="n">
-        <v>462.52534286434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y41" t="n">
-        <v>462.52534286434</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="42">
@@ -7467,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7476,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7488,22 +7490,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J42" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M42" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N42" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1113.00182921349</v>
+        <v>386.9570914377655</v>
       </c>
       <c r="C43" t="n">
-        <v>940.4401176967148</v>
+        <v>386.9570914377655</v>
       </c>
       <c r="D43" t="n">
-        <v>774.5621248982375</v>
+        <v>386.9570914377655</v>
       </c>
       <c r="E43" t="n">
-        <v>604.8041211489747</v>
+        <v>386.9570914377655</v>
       </c>
       <c r="F43" t="n">
-        <v>428.0970671107308</v>
+        <v>210.2500373995217</v>
       </c>
       <c r="G43" t="n">
-        <v>262.5057921365585</v>
+        <v>44.65876242534941</v>
       </c>
       <c r="H43" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7570,19 +7572,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L43" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M43" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N43" t="n">
-        <v>1109.321405990304</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O43" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
         <v>1528.990655216085</v>
@@ -7594,25 +7596,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T43" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U43" t="n">
-        <v>1537.942061378414</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V43" t="n">
-        <v>1537.942061378414</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W43" t="n">
-        <v>1532.240118618369</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X43" t="n">
-        <v>1532.240118618369</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y43" t="n">
-        <v>1304.820447932477</v>
+        <v>386.9570914377655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>197.3916847476707</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="C44" t="n">
-        <v>14.48612067458814</v>
+        <v>789.3122260077412</v>
       </c>
       <c r="D44" t="n">
-        <v>14.48612067458814</v>
+        <v>360.7305517450095</v>
       </c>
       <c r="E44" t="n">
-        <v>14.48612067458814</v>
+        <v>360.7305517450095</v>
       </c>
       <c r="F44" t="n">
-        <v>14.48612067458814</v>
+        <v>360.7305517450095</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48612067458814</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>14.48612067458814</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>14.48612067458814</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>17.35473893226555</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>17.35473893226555</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>196.6204822802937</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>375.8862256283219</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8862256283219</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>541.4004696563243</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>380.2972488207532</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V44" t="n">
-        <v>380.2972488207532</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W44" t="n">
-        <v>197.3916847476707</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X44" t="n">
-        <v>197.3916847476707</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y44" t="n">
-        <v>197.3916847476707</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>14.48612067458814</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>14.48612067458814</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
-        <v>14.48612067458814</v>
+        <v>338.5686635760968</v>
       </c>
       <c r="E45" t="n">
-        <v>14.48612067458814</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F45" t="n">
-        <v>14.48612067458814</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>14.48612067458814</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J45" t="n">
-        <v>219.8155371830739</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K45" t="n">
-        <v>399.0812805311022</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L45" t="n">
-        <v>399.0812805311022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>399.0812805311022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>399.0812805311022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>399.0812805311022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>724.3060337294069</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>724.3060337294069</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>547.9694867293751</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>365.0639226562926</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>182.15835858321</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>27.29092282208998</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>14.48612067458814</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>175.5893415101591</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C46" t="n">
-        <v>175.5893415101591</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D46" t="n">
-        <v>175.5893415101591</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E46" t="n">
-        <v>175.5893415101591</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>193.7518640226163</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L46" t="n">
-        <v>193.7518640226163</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M46" t="n">
-        <v>373.0176073706446</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N46" t="n">
-        <v>552.2833507186728</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O46" t="n">
-        <v>552.2833507186728</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T46" t="n">
-        <v>541.4004696563243</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U46" t="n">
-        <v>358.4949055832417</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V46" t="n">
-        <v>175.5893415101591</v>
+        <v>1143.161828603558</v>
       </c>
       <c r="W46" t="n">
-        <v>175.5893415101591</v>
+        <v>871.1354241898498</v>
       </c>
       <c r="X46" t="n">
-        <v>175.5893415101591</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y46" t="n">
-        <v>175.5893415101591</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8377,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,19 +8455,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -8529,13 +8531,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L9" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8690,19 +8692,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9410,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>145.5272350047205</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9802,16 +9804,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>385.8845973035118</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9872,11 +9874,11 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
@@ -9887,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10030,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>296.9562613211783</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
         <v>424.2958575201044</v>
@@ -10051,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P32" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10431,7 +10433,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10504,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10978,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O41" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11136,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11218,22 +11220,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>224.9470977440209</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>298.8178948332412</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.897594199674156</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11455,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>3.868594087274687</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,22 +22549,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>316.4506420024523</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>381.9477400995527</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22604,7 +22606,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -22708,13 +22710,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -22723,7 +22725,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>19.75255685807457</v>
       </c>
       <c r="V4" t="n">
-        <v>235.1216712433306</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22787,7 +22789,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -22796,13 +22798,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>239.088687541502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>182.1552882501725</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22942,10 +22944,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.41253680514609</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22996,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>7.667235092792936</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23033,10 +23035,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>182.1552882501724</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23075,7 +23077,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>71.01028819841946</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23239,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>160.3077334112283</v>
       </c>
       <c r="Y10" t="n">
-        <v>68.8773468473951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23261,16 +23263,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>428.9049994503013</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>182.1552882501724</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23312,16 +23314,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23425,7 +23427,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>72.78996144619887</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>68.87734684739513</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>347.5617833740778</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23507,7 +23509,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>329.7284710573622</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23701,19 +23703,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>51.58631836451733</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>202.158886575363</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23744,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23789,10 +23791,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>218.5834710056093</v>
       </c>
       <c r="W17" t="n">
-        <v>392.774265271909</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.5909863936153</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.8241876663074</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>53.45792334953444</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>233.5037548043551</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>58.66873794568224</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>140.2911164346212</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>146.9909301198042</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>277.2007094151747</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D26" t="n">
         <v>7.254829457195569</v>
@@ -24494,7 +24496,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>105.0414389630128</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -24610,13 +24612,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>37.92448224552737</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24680,13 +24682,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24737,13 +24739,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>261.4579213141779</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24841,16 +24843,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>97.00903455513397</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>72.78996144619913</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24920,19 +24922,19 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>267.7355188468682</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24965,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>74.49919881847789</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>103.143101248841</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25157,19 +25159,19 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>44.82809155203017</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25217,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>41.23124748277456</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.9566062815595</v>
+        <v>83.52192172816706</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25375,7 +25377,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25391,10 +25393,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25403,7 +25405,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -25442,22 +25444,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>356.6404755144978</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>50.3758812739743</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>72.4709081021078</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.87272557396435</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>47.60968125113078</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25679,19 +25681,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>26.12694751992274</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>127.8952096810256</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>263.6612170371265</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>252.6845396560592</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25877,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>360.1036917622175</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25916,16 +25918,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>36.79004642334004</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>97.13789102893793</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>219.7303916107253</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.04983432626892</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>2.393018291786206</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>112.5441673025446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -26032,7 +26034,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>15.44779487064605</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26074,22 +26076,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>62.34414352497757</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>94.572162307074</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0094446159221</v>
+        <v>254.6738902829383</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>366739.1592815716</v>
+        <v>366739.1592815717</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>366739.1592815717</v>
+        <v>366739.1592815718</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366739.1592815716</v>
+        <v>366739.1592815717</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>515913.2896937423</v>
+        <v>366739.1592815717</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>515913.2896937424</v>
+        <v>366739.1592815717</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>366739.1592815717</v>
+        <v>366739.1592815716</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>366739.1592815716</v>
+        <v>366739.1592815717</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156513.0681601729</v>
+        <v>366739.1592815717</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60101.16878103677</v>
+        <v>60101.16878103676</v>
       </c>
       <c r="C2" t="n">
         <v>60101.16878103677</v>
       </c>
       <c r="D2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="E2" t="n">
         <v>60101.16878103676</v>
-      </c>
-      <c r="E2" t="n">
-        <v>60101.16878103677</v>
       </c>
       <c r="F2" t="n">
         <v>60101.16878103677</v>
@@ -26329,31 +26331,31 @@
         <v>60101.16878103677</v>
       </c>
       <c r="H2" t="n">
-        <v>84547.80711447631</v>
+        <v>60101.16878103675</v>
       </c>
       <c r="I2" t="n">
-        <v>84547.80711447628</v>
+        <v>60101.16878103676</v>
       </c>
       <c r="J2" t="n">
+        <v>60101.16878103675</v>
+      </c>
+      <c r="K2" t="n">
         <v>60101.16878103676</v>
       </c>
-      <c r="K2" t="n">
-        <v>60101.16878103675</v>
-      </c>
       <c r="L2" t="n">
-        <v>60101.16878103676</v>
+        <v>60101.16878103677</v>
       </c>
       <c r="M2" t="n">
-        <v>60101.16878103676</v>
+        <v>60101.16878103677</v>
       </c>
       <c r="N2" t="n">
         <v>60101.16878103676</v>
       </c>
       <c r="O2" t="n">
+        <v>60101.16878103676</v>
+      </c>
+      <c r="P2" t="n">
         <v>60101.16878103677</v>
-      </c>
-      <c r="P2" t="n">
-        <v>25649.34255823587</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>6500.075391072234</v>
       </c>
       <c r="D4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="E4" t="n">
         <v>6500.075391072234</v>
@@ -26430,13 +26432,13 @@
         <v>6500.075391072234</v>
       </c>
       <c r="G4" t="n">
-        <v>6500.075391072235</v>
+        <v>6500.075391072234</v>
       </c>
       <c r="H4" t="n">
-        <v>9144.033827297713</v>
+        <v>6500.075391072234</v>
       </c>
       <c r="I4" t="n">
-        <v>9144.033827297713</v>
+        <v>6500.075391072234</v>
       </c>
       <c r="J4" t="n">
         <v>6500.075391072235</v>
@@ -26454,10 +26456,10 @@
         <v>6500.075391072234</v>
       </c>
       <c r="O4" t="n">
+        <v>6500.075391072235</v>
+      </c>
+      <c r="P4" t="n">
         <v>6500.075391072234</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2774.033579403125</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148014.9954069677</v>
+        <v>-148014.9954069678</v>
       </c>
       <c r="C6" t="n">
         <v>-5823.69474725781</v>
       </c>
       <c r="D6" t="n">
-        <v>-5823.694747257818</v>
+        <v>-5823.69474725781</v>
       </c>
       <c r="E6" t="n">
-        <v>27803.9052527422</v>
+        <v>27803.90525274218</v>
       </c>
       <c r="F6" t="n">
         <v>27803.90525274219</v>
@@ -26537,31 +26539,31 @@
         <v>27803.90525274219</v>
       </c>
       <c r="H6" t="n">
-        <v>-30803.92063259656</v>
+        <v>27803.90525274217</v>
       </c>
       <c r="I6" t="n">
-        <v>34818.84872542087</v>
+        <v>27803.90525274218</v>
       </c>
       <c r="J6" t="n">
-        <v>-19573.67671953205</v>
+        <v>-83210.56009224801</v>
       </c>
       <c r="K6" t="n">
-        <v>27803.90525274217</v>
+        <v>27803.90525274218</v>
       </c>
       <c r="L6" t="n">
-        <v>27803.90525274218</v>
+        <v>27803.90525274219</v>
       </c>
       <c r="M6" t="n">
-        <v>27803.90525274218</v>
+        <v>27803.90525274219</v>
       </c>
       <c r="N6" t="n">
         <v>27803.90525274218</v>
       </c>
       <c r="O6" t="n">
+        <v>27803.90525274218</v>
+      </c>
+      <c r="P6" t="n">
         <v>27803.90525274219</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11865.85726614576</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34781,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35097,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,19 +35175,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L9" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35410,19 +35412,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36130,16 +36132,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>145.5272350047205</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P23" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,16 +36524,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>385.8845973035118</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36592,11 +36594,11 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
@@ -36607,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36750,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>296.9562613211783</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
         <v>424.2958575201044</v>
@@ -36771,7 +36773,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>424.2958575201044</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P32" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697544</v>
@@ -37151,7 +37153,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37312,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697544</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6484237362511</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37789,10 +37791,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O41" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37856,10 +37858,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37938,22 +37940,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>224.9470977440209</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>298.8178948332412</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.897594199674156</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>181.0765084323517</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.07700177367349</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>3.868594087274687</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50342.17947536736</v>
+        <v>-56577.49697452231</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11090349.17873481</v>
+        <v>11090349.1787348</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>46.42570726862482</v>
       </c>
       <c r="D2" t="n">
-        <v>115.1000449748476</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631583</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -819,22 +819,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>13.01529308107395</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>255.8961138813511</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>47.15016546971388</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>396.0716691005147</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1071,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>72.21462998383454</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.2706020271287</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>15.02349148428473</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>185.6197914577338</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>7.565952756857447</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>82.63010370869334</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5319979429864543</v>
+        <v>181.9821671230157</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>211.295991602075</v>
+        <v>13.71559193043032</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74.47479140598085</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>314.9409334430488</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>84.53123883647795</v>
+        <v>84.53123883647797</v>
       </c>
       <c r="H15" t="n">
         <v>41.31829566194965</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>152.0267782629326</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1773,13 +1773,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>67.14725379420837</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>182.7652409051517</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>140.4073095599024</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>189.6817240630601</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>41.26176538196641</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D20" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="E20" t="n">
-        <v>375.9790740437533</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>263.7799952318616</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>104.6886367656056</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>135.3575543048045</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2323,13 +2323,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>373.7197913037078</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>58.05779479266912</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,13 +2535,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>38.05689389059867</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>108.3582942437108</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,19 +2797,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>155.8532364480161</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>97.53285925133385</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.6072317764128</v>
       </c>
       <c r="D31" t="n">
-        <v>67.21017831535856</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3015,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>19.76988317734234</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>142.6278845844143</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F35" t="n">
-        <v>378.7606637428541</v>
+        <v>73.03788137001466</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T36" t="n">
         <v>128.8768572327044</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.3785108036302</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>129.2322815216429</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4310187691027</v>
+        <v>104.431899516258</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.4295244296894</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>45.94361071252661</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.4268935289279</v>
+        <v>240.2910377548343</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>45.94361071252661</v>
       </c>
       <c r="H43" t="n">
-        <v>10.60794288550365</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="D44" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>37.28016130075125</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>234.171221876799</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>29.41206276533558</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>144.1927305555789</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1697.183430080417</v>
+        <v>80.83832240830009</v>
       </c>
       <c r="C2" t="n">
-        <v>1697.183430080417</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>1580.920758388652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>1152.33908412592</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4366,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.183430080417</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.183430080417</v>
+        <v>507.1378928932079</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>555.001419529772</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>382.4397080129969</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>382.4397080129969</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>212.6817042637342</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>212.6817042637342</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.09042928956183</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4494,7 +4494,7 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
         <v>1181.483761245743</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1012.163870549765</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>725.2083624201957</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>453.1819580064872</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X4" t="n">
-        <v>453.1819580064872</v>
+        <v>746.820038248759</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.7622873205955</v>
+        <v>746.820038248759</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.5685620045878</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C5" t="n">
-        <v>510.5685620045878</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D5" t="n">
-        <v>81.98688774185609</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E5" t="n">
-        <v>81.98688774185609</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F5" t="n">
-        <v>81.98688774185609</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>81.98688774185609</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M5" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="N5" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="O5" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4603,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1297.111037049594</v>
       </c>
       <c r="Y5" t="n">
-        <v>510.5685620045878</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4688,10 +4688,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.2419976140245</v>
+        <v>1097.285950678907</v>
       </c>
       <c r="C7" t="n">
-        <v>376.2419976140245</v>
+        <v>924.724239162132</v>
       </c>
       <c r="D7" t="n">
-        <v>376.2419976140245</v>
+        <v>758.8462463636547</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>589.0882426143919</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>412.3811885761481</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>246.7899136019758</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>106.8877392923503</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4731,13 +4731,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X7" t="n">
-        <v>376.2419976140245</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.2419976140245</v>
+        <v>1289.104569397894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>323.0738231583921</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="C8" t="n">
-        <v>323.0738231583921</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="D8" t="n">
-        <v>323.0738231583921</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E8" t="n">
-        <v>323.0738231583921</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1682.008186156897</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1682.008186156897</v>
       </c>
       <c r="U8" t="n">
-        <v>1509.688691234222</v>
+        <v>1682.008186156897</v>
       </c>
       <c r="V8" t="n">
-        <v>1147.071741168048</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="W8" t="n">
-        <v>742.2162865790814</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="X8" t="n">
-        <v>323.0738231583921</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.0738231583921</v>
+        <v>1319.391236090724</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>383.2124341566272</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="C10" t="n">
-        <v>210.6507226398521</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="D10" t="n">
-        <v>210.6507226398521</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>181.4882194333121</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>41.58604512368657</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W10" t="n">
-        <v>885.9154747824084</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X10" t="n">
-        <v>802.450723561506</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y10" t="n">
-        <v>575.0310528756143</v>
+        <v>347.0794944074844</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1292.327975491451</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C11" t="n">
-        <v>1292.327975491451</v>
+        <v>646.762503068529</v>
       </c>
       <c r="D11" t="n">
-        <v>863.7463012287189</v>
+        <v>218.1808288057973</v>
       </c>
       <c r="E11" t="n">
-        <v>863.2089295691367</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F11" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H11" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I11" t="n">
         <v>33.94366860160834</v>
@@ -5074,19 +5074,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W11" t="n">
-        <v>1292.327975491451</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X11" t="n">
-        <v>1292.327975491451</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y11" t="n">
-        <v>1292.327975491451</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="12">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5226,25 +5226,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U13" t="n">
-        <v>992.2117929153466</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V13" t="n">
-        <v>778.7814983677961</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W13" t="n">
-        <v>506.7550939540876</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X13" t="n">
-        <v>261.3633392875001</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y13" t="n">
-        <v>33.94366860160834</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>435.3414999783445</v>
+        <v>352.4826129674469</v>
       </c>
       <c r="C14" t="n">
-        <v>435.3414999783445</v>
+        <v>352.4826129674469</v>
       </c>
       <c r="D14" t="n">
-        <v>435.3414999783445</v>
+        <v>352.4826129674469</v>
       </c>
       <c r="E14" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F14" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5305,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V14" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W14" t="n">
-        <v>929.7110254252771</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X14" t="n">
-        <v>510.5685620045878</v>
+        <v>352.4826129674469</v>
       </c>
       <c r="Y14" t="n">
-        <v>510.5685620045878</v>
+        <v>352.4826129674469</v>
       </c>
     </row>
     <row r="15">
@@ -5375,7 +5375,7 @@
         <v>804.6185656731816</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.8484307043673</v>
+        <v>537.9746478910331</v>
       </c>
       <c r="C16" t="n">
-        <v>546.2867191875922</v>
+        <v>365.412936374258</v>
       </c>
       <c r="D16" t="n">
-        <v>380.4087263891149</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E16" t="n">
-        <v>210.6507226398521</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5436,25 +5436,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L16" t="n">
-        <v>437.4083829648294</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5472,16 +5472,16 @@
         <v>1451.303983658873</v>
       </c>
       <c r="V16" t="n">
-        <v>1451.303983658873</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W16" t="n">
-        <v>1383.478474775834</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="X16" t="n">
-        <v>1138.086720109246</v>
+        <v>918.9567208627154</v>
       </c>
       <c r="Y16" t="n">
-        <v>910.6670494233545</v>
+        <v>691.5370501768236</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.0738231583921</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C17" t="n">
-        <v>323.0738231583921</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0738231583921</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="E17" t="n">
-        <v>323.0738231583921</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="F17" t="n">
-        <v>323.0738231583921</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G17" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H17" t="n">
         <v>33.94366860160834</v>
@@ -5545,22 +5545,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V17" t="n">
-        <v>1555.357864868395</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W17" t="n">
-        <v>1150.502410279428</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X17" t="n">
-        <v>731.3599468587387</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y17" t="n">
-        <v>323.0738231583921</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5582,10 +5582,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5600,16 +5600,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.8484307043673</v>
+        <v>807.508379929692</v>
       </c>
       <c r="C19" t="n">
-        <v>546.2867191875922</v>
+        <v>634.9466684129169</v>
       </c>
       <c r="D19" t="n">
-        <v>380.4087263891149</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="E19" t="n">
-        <v>210.6507226398521</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
@@ -5697,28 +5697,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U19" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V19" t="n">
-        <v>1655.504879189542</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.478474775834</v>
+        <v>1244.497835670078</v>
       </c>
       <c r="X19" t="n">
-        <v>1138.086720109246</v>
+        <v>999.1060810034901</v>
       </c>
       <c r="Y19" t="n">
-        <v>910.6670494233545</v>
+        <v>999.1060810034901</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1270.883859595509</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="C20" t="n">
-        <v>842.3021853327778</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="D20" t="n">
-        <v>413.7205110700461</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="E20" t="n">
-        <v>33.94366860160834</v>
+        <v>300.8048976026114</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H20" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L20" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M20" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N20" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O20" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P20" t="n">
         <v>1107.976466382457</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>729.3865718653431</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
         <v>1159.957753041174</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.6817019292769</v>
+        <v>452.1536521710448</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1199904125018</v>
+        <v>279.5919406542698</v>
       </c>
       <c r="D22" t="n">
-        <v>376.2419976140245</v>
+        <v>279.5919406542698</v>
       </c>
       <c r="E22" t="n">
-        <v>376.2419976140245</v>
+        <v>279.5919406542698</v>
       </c>
       <c r="F22" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H22" t="n">
         <v>33.94366860160834</v>
@@ -5910,25 +5910,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
@@ -5937,25 +5937,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>1270.644793662241</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U22" t="n">
-        <v>1133.919991334156</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.919991334156</v>
+        <v>1388.81010065622</v>
       </c>
       <c r="W22" t="n">
-        <v>1133.919991334156</v>
+        <v>1116.783696242511</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.919991334156</v>
+        <v>871.3919415759237</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.5003206482641</v>
+        <v>643.972270890032</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1697.183430080417</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.601755817686</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D23" t="n">
-        <v>840.020081554954</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E23" t="n">
-        <v>411.4384072922223</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -5992,49 +5992,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>857.0776321906106</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>1295.665016416959</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.183430080417</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.183430080417</v>
+        <v>890.8095618279922</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M24" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N24" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O24" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F25" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G25" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H25" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>1146.964903885608</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N25" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O25" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
         <v>1528.990655216085</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U25" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V25" t="n">
-        <v>885.9154747824084</v>
+        <v>953.7704859551459</v>
       </c>
       <c r="W25" t="n">
-        <v>613.8890703687</v>
+        <v>681.7440815414374</v>
       </c>
       <c r="X25" t="n">
-        <v>368.4973157021125</v>
+        <v>681.7440815414374</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.0776450162207</v>
+        <v>454.3244108555456</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C26" t="n">
-        <v>1318.974446717864</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D26" t="n">
-        <v>890.3927724551322</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E26" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6229,19 +6229,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L26" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M26" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N26" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O26" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="L26" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M26" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="N26" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="27">
@@ -6287,10 +6287,10 @@
         <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
-        <v>338.5686635760968</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E27" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
         <v>161.0644105192121</v>
@@ -6311,16 +6311,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.94366860160834</v>
+        <v>655.4528238316821</v>
       </c>
       <c r="C28" t="n">
-        <v>33.94366860160834</v>
+        <v>655.4528238316821</v>
       </c>
       <c r="D28" t="n">
-        <v>33.94366860160834</v>
+        <v>655.4528238316821</v>
       </c>
       <c r="E28" t="n">
-        <v>33.94366860160834</v>
+        <v>485.6948200824193</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>308.9877660441755</v>
       </c>
       <c r="G28" t="n">
-        <v>33.94366860160834</v>
+        <v>143.3964910700032</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6384,52 +6384,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O28" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.45316161735</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V28" t="n">
-        <v>864.4976534877803</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W28" t="n">
-        <v>592.4712490740719</v>
+        <v>900.8445784982696</v>
       </c>
       <c r="X28" t="n">
-        <v>347.0794944074844</v>
+        <v>655.4528238316821</v>
       </c>
       <c r="Y28" t="n">
-        <v>119.6598237215927</v>
+        <v>655.4528238316821</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1179.522927011916</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C29" t="n">
-        <v>750.9412527491843</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="D29" t="n">
-        <v>750.9412527491843</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="E29" t="n">
-        <v>750.9412527491843</v>
+        <v>191.371180165261</v>
       </c>
       <c r="F29" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H29" t="n">
         <v>33.94366860160834</v>
@@ -6463,19 +6463,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
         <v>687.9235674375537</v>
@@ -6493,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V29" t="n">
-        <v>1598.665390432605</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W29" t="n">
-        <v>1598.665390432605</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X29" t="n">
-        <v>1179.522927011916</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y29" t="n">
-        <v>1179.522927011916</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,34 +6530,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J30" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
-        <v>778.554892512724</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>613.8890703687</v>
+        <v>206.2742057495001</v>
       </c>
       <c r="C31" t="n">
-        <v>613.8890703687</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D31" t="n">
-        <v>546.0000013632873</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E31" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F31" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G31" t="n">
         <v>33.94366860160834</v>
@@ -6630,10 +6630,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M31" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N31" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6645,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U31" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V31" t="n">
-        <v>885.9154747824084</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W31" t="n">
-        <v>613.8890703687</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X31" t="n">
-        <v>613.8890703687</v>
+        <v>625.5124951543789</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.8890703687</v>
+        <v>398.0928244684872</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C32" t="n">
-        <v>323.0738231583921</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0738231583921</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="E32" t="n">
         <v>323.0738231583921</v>
@@ -6739,13 +6739,13 @@
         <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X32" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y32" t="n">
-        <v>751.6554974211238</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6782,19 +6782,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L33" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M33" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N33" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O33" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1113.00182921349</v>
+        <v>520.3319541549333</v>
       </c>
       <c r="C34" t="n">
-        <v>940.4401176967148</v>
+        <v>347.7702426381583</v>
       </c>
       <c r="D34" t="n">
-        <v>774.5621248982375</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E34" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F34" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M34" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N34" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6897,13 +6897,13 @@
         <v>1229.568731954216</v>
       </c>
       <c r="W34" t="n">
-        <v>1229.568731954216</v>
+        <v>957.542327540508</v>
       </c>
       <c r="X34" t="n">
-        <v>1229.568731954216</v>
+        <v>712.1505728739205</v>
       </c>
       <c r="Y34" t="n">
-        <v>1229.568731954216</v>
+        <v>712.1505728739205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6603521915781</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D35" t="n">
-        <v>705.6603521915781</v>
+        <v>536.3009806118296</v>
       </c>
       <c r="E35" t="n">
-        <v>705.6603521915781</v>
+        <v>107.7193063490979</v>
       </c>
       <c r="F35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
         <v>33.94366860160834</v>
@@ -6943,13 +6943,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6970,19 +6970,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V35" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W35" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X35" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y35" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,7 +7004,7 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G36" t="n">
         <v>75.67932078539587</v>
@@ -7013,25 +7013,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J36" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K36" t="n">
-        <v>804.6185656731816</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="L36" t="n">
-        <v>1159.957753041174</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="M36" t="n">
-        <v>1159.957753041174</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O36" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7058,10 +7058,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X36" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y36" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1024.341879988165</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C37" t="n">
-        <v>851.7801684713901</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D37" t="n">
-        <v>685.9021756729128</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E37" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F37" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G37" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1418.750429333523</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V37" t="n">
-        <v>1131.794921203953</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W37" t="n">
-        <v>1131.794921203953</v>
+        <v>733.9599953851107</v>
       </c>
       <c r="X37" t="n">
-        <v>1131.794921203953</v>
+        <v>733.9599953851107</v>
       </c>
       <c r="Y37" t="n">
-        <v>1131.794921203953</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.9231742410761</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="C38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F38" t="n">
-        <v>435.3414999783445</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O38" t="n">
         <v>687.9235674375537</v>
@@ -7210,16 +7210,16 @@
         <v>1217.893900270473</v>
       </c>
       <c r="V38" t="n">
-        <v>1217.893900270473</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W38" t="n">
-        <v>863.9231742410761</v>
+        <v>749.7901830161599</v>
       </c>
       <c r="X38" t="n">
-        <v>863.9231742410761</v>
+        <v>749.7901830161599</v>
       </c>
       <c r="Y38" t="n">
-        <v>863.9231742410761</v>
+        <v>749.7901830161599</v>
       </c>
     </row>
     <row r="39">
@@ -7244,19 +7244,19 @@
         <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I39" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J39" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K39" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
         <v>1159.957753041174</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>546.2867191875922</v>
+        <v>765.256118292778</v>
       </c>
       <c r="C40" t="n">
-        <v>546.2867191875922</v>
+        <v>592.6944067760029</v>
       </c>
       <c r="D40" t="n">
-        <v>380.4087263891149</v>
+        <v>426.8164139775256</v>
       </c>
       <c r="E40" t="n">
-        <v>210.6507226398521</v>
+        <v>257.0584102282629</v>
       </c>
       <c r="F40" t="n">
-        <v>33.94366860160834</v>
+        <v>80.35135619001906</v>
       </c>
       <c r="G40" t="n">
         <v>33.94366860160834</v>
@@ -7335,16 +7335,16 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N40" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7356,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U40" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.348475529303</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W40" t="n">
-        <v>892.3220711155946</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="X40" t="n">
-        <v>892.3220711155946</v>
+        <v>1184.494407697657</v>
       </c>
       <c r="Y40" t="n">
-        <v>664.9024004297028</v>
+        <v>957.0747370117651</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1318.974446717864</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.974446717864</v>
+        <v>462.9421322372</v>
       </c>
       <c r="D41" t="n">
-        <v>890.3927724551322</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E41" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H41" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7414,49 +7414,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L41" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N41" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O41" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P41" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q41" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R41" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>386.9570914377655</v>
+        <v>765.256118292778</v>
       </c>
       <c r="C43" t="n">
-        <v>386.9570914377655</v>
+        <v>592.6944067760029</v>
       </c>
       <c r="D43" t="n">
-        <v>386.9570914377655</v>
+        <v>426.8164139775256</v>
       </c>
       <c r="E43" t="n">
-        <v>386.9570914377655</v>
+        <v>257.0584102282629</v>
       </c>
       <c r="F43" t="n">
-        <v>210.2500373995217</v>
+        <v>80.35135619001906</v>
       </c>
       <c r="G43" t="n">
-        <v>44.65876242534941</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7572,10 +7572,10 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>343.2209805328789</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
         <v>1181.483761245743</v>
@@ -7593,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T43" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U43" t="n">
-        <v>1418.750429333523</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.794921203953</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W43" t="n">
-        <v>859.7685167902448</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="X43" t="n">
-        <v>614.3767621236573</v>
+        <v>1184.494407697657</v>
       </c>
       <c r="Y43" t="n">
-        <v>386.9570914377655</v>
+        <v>957.0747370117651</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1217.893900270473</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C44" t="n">
-        <v>789.3122260077412</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="D44" t="n">
-        <v>360.7305517450095</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="E44" t="n">
-        <v>360.7305517450095</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F44" t="n">
-        <v>360.7305517450095</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G44" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
@@ -7651,49 +7651,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R44" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V44" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W44" t="n">
-        <v>1217.893900270473</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X44" t="n">
-        <v>1217.893900270473</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="Y44" t="n">
-        <v>1217.893900270473</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="45">
@@ -7706,31 +7706,31 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760968</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
         <v>1159.957753041174</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>206.5053801183834</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C46" t="n">
-        <v>33.94366860160834</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D46" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E46" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F46" t="n">
         <v>33.94366860160834</v>
@@ -7806,52 +7806,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V46" t="n">
-        <v>1143.161828603558</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W46" t="n">
-        <v>871.1354241898498</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="X46" t="n">
-        <v>625.7436695232623</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="Y46" t="n">
-        <v>398.3239988373705</v>
+        <v>718.8484307043673</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8142,10 +8142,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8379,16 +8379,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q15" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9804,16 +9804,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>385.8845973035118</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9877,22 +9877,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -9959,7 +9959,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10278,13 +10278,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,10 +10518,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10661,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>385.2554146752023</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L36" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O38" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11062,7 +11062,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -11083,7 +11083,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11220,13 +11220,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>224.9470977440209</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
@@ -11320,7 +11320,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>387.3353408197861</v>
       </c>
       <c r="D2" t="n">
-        <v>316.4506420024523</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22606,16 +22606,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,22 +22707,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>125.4878594854553</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>19.75255685807457</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -22801,10 +22801,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>239.088687541502</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>18.87936968596773</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22959,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>15.55871974923687</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>7.667235092792936</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>67.79186359371663</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>71.01028819841946</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23190,16 +23190,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>80.20739697621397</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>160.3077334112283</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>428.9049994503013</v>
+        <v>247.4548302702721</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>72.78996144619887</v>
+        <v>270.3703611178435</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>347.5617833740778</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,19 +23503,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>114.496063950239</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>37.87365426886461</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23712,10 +23712,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>202.158886575363</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>240.8235143897327</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23785,22 +23785,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>218.5834710056093</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.2187084687371055</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -23949,7 +23949,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>242.8241876663074</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>53.45792334953444</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>159.8087600630227</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -23989,7 +23989,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>70.25134673225577</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>140.2911164346212</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>49.86896399117649</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -24226,7 +24226,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>300.9329857728426</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -24381,10 +24381,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>246.0290591576752</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0414389630128</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -24609,16 +24609,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>30.14485832281838</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24685,19 +24685,19 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>267.7355188468682</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -24733,19 +24733,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>261.4579213141779</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0.2288626251944947</v>
       </c>
       <c r="D31" t="n">
-        <v>97.00903455513397</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>409.6671142159454</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>381.0370168657346</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>21.59132828607824</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25159,19 +25159,19 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F35" t="n">
-        <v>44.82809155203017</v>
+        <v>350.5508739248697</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.52192172816706</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>140.0738588479284</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25405,13 +25405,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>50.3758812739743</v>
+        <v>296.375000526819</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.4709081021078</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>117.991751511904</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25608,13 +25608,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.60968125113078</v>
+        <v>181.7455370252244</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25648,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>117.991751511904</v>
       </c>
       <c r="H43" t="n">
-        <v>127.8952096810256</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>360.1036917622175</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>180.7798169096834</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>254.6738902829383</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>125.1134098139925</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>366739.1592815718</v>
+        <v>366739.1592815717</v>
       </c>
     </row>
     <row r="5">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>366739.1592815716</v>
+        <v>366739.1592815717</v>
       </c>
     </row>
     <row r="13">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60101.16878103676</v>
+        <v>60101.16878103677</v>
       </c>
       <c r="C2" t="n">
         <v>60101.16878103677</v>
       </c>
       <c r="D2" t="n">
-        <v>60101.16878103677</v>
+        <v>60101.16878103675</v>
       </c>
       <c r="E2" t="n">
-        <v>60101.16878103676</v>
+        <v>60101.16878103675</v>
       </c>
       <c r="F2" t="n">
         <v>60101.16878103677</v>
@@ -26331,31 +26331,31 @@
         <v>60101.16878103677</v>
       </c>
       <c r="H2" t="n">
+        <v>60101.16878103676</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="K2" t="n">
         <v>60101.16878103675</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60101.16878103676</v>
-      </c>
-      <c r="J2" t="n">
-        <v>60101.16878103675</v>
-      </c>
-      <c r="K2" t="n">
-        <v>60101.16878103676</v>
       </c>
       <c r="L2" t="n">
         <v>60101.16878103677</v>
       </c>
       <c r="M2" t="n">
+        <v>60101.16878103675</v>
+      </c>
+      <c r="N2" t="n">
         <v>60101.16878103677</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>60101.16878103677</v>
+      </c>
+      <c r="P2" t="n">
         <v>60101.16878103676</v>
-      </c>
-      <c r="O2" t="n">
-        <v>60101.16878103676</v>
-      </c>
-      <c r="P2" t="n">
-        <v>60101.16878103677</v>
       </c>
     </row>
     <row r="3">
@@ -26426,25 +26426,25 @@
         <v>6500.075391072233</v>
       </c>
       <c r="E4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="F4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="G4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="H4" t="n">
         <v>6500.075391072234</v>
       </c>
       <c r="I4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="J4" t="n">
-        <v>6500.075391072235</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="K4" t="n">
-        <v>6500.075391072234</v>
+        <v>6500.075391072233</v>
       </c>
       <c r="L4" t="n">
         <v>6500.075391072234</v>
@@ -26456,7 +26456,7 @@
         <v>6500.075391072234</v>
       </c>
       <c r="O4" t="n">
-        <v>6500.075391072235</v>
+        <v>6500.075391072234</v>
       </c>
       <c r="P4" t="n">
         <v>6500.075391072234</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148014.9954069678</v>
+        <v>-148754.3520188834</v>
       </c>
       <c r="C6" t="n">
-        <v>-5823.69474725781</v>
+        <v>-6563.051359173463</v>
       </c>
       <c r="D6" t="n">
-        <v>-5823.69474725781</v>
+        <v>-6563.051359173478</v>
       </c>
       <c r="E6" t="n">
-        <v>27803.90525274218</v>
+        <v>27064.54864082652</v>
       </c>
       <c r="F6" t="n">
-        <v>27803.90525274219</v>
+        <v>27064.54864082654</v>
       </c>
       <c r="G6" t="n">
-        <v>27803.90525274219</v>
+        <v>27064.54864082654</v>
       </c>
       <c r="H6" t="n">
-        <v>27803.90525274217</v>
+        <v>27064.54864082653</v>
       </c>
       <c r="I6" t="n">
-        <v>27803.90525274218</v>
+        <v>27064.54864082654</v>
       </c>
       <c r="J6" t="n">
-        <v>-83210.56009224801</v>
+        <v>-83949.91670416365</v>
       </c>
       <c r="K6" t="n">
-        <v>27803.90525274218</v>
+        <v>27064.54864082652</v>
       </c>
       <c r="L6" t="n">
-        <v>27803.90525274219</v>
+        <v>27064.54864082654</v>
       </c>
       <c r="M6" t="n">
-        <v>27803.90525274219</v>
+        <v>27064.54864082652</v>
       </c>
       <c r="N6" t="n">
-        <v>27803.90525274218</v>
+        <v>27064.54864082654</v>
       </c>
       <c r="O6" t="n">
-        <v>27803.90525274218</v>
+        <v>27064.54864082654</v>
       </c>
       <c r="P6" t="n">
-        <v>27803.90525274219</v>
+        <v>27064.54864082653</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34862,10 +34862,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35099,16 +35099,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q15" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>424.2958575201044</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36372,16 +36372,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36524,16 +36524,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N25" t="n">
-        <v>385.8845973035118</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36597,22 +36597,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36679,7 +36679,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36998,13 +36998,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37150,22 +37150,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -37238,10 +37238,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37311,7 +37311,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>385.2554146752023</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L36" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37554,10 +37554,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O38" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P38" t="n">
         <v>424.2958575201044</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>225.3346227128309</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -37715,7 +37715,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37782,7 +37782,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>424.2958575201044</v>
@@ -37803,7 +37803,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37940,13 +37940,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>224.9470977440209</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
@@ -38040,7 +38040,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
